--- a/Nao_Encontrados_MyMaps.xlsx
+++ b/Nao_Encontrados_MyMaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6BF5AA-8E13-47A3-8A6C-918DECD88E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9B185-40FE-447D-962F-56337C09F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16935" yWindow="1035" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -46,6 +46,66 @@
   </si>
   <si>
     <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO DA SILVA - AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
   </si>
 </sst>
 </file>
@@ -363,18 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="166" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -396,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -405,6 +463,116 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Nao_Encontrados_MyMaps.xlsx
+++ b/Nao_Encontrados_MyMaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9B185-40FE-447D-962F-56337C09F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C981A-55E3-40E6-B195-7DD9472824CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7905" yWindow="2880" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -34,78 +34,6 @@
   </si>
   <si>
     <t>TURNO</t>
-  </si>
-  <si>
-    <t>WASHINGTON DA SILVA GONÇALVES - RUA NILO COELHO JACOME, 394 - BELA VISTA  - CAETÉ</t>
-  </si>
-  <si>
-    <t>RUA NILO COELHO JACOME, 394 - BELA VISTA - CAETÉ</t>
-  </si>
-  <si>
-    <t>CLÁUDIO MANOEL DA SILVA BORBA</t>
-  </si>
-  <si>
-    <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
-  </si>
-  <si>
-    <t>RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
-  </si>
-  <si>
-    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
-  </si>
-  <si>
-    <t>BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
-  </si>
-  <si>
-    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
-  </si>
-  <si>
-    <t>RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
-  </si>
-  <si>
-    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
-  </si>
-  <si>
-    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
-  </si>
-  <si>
-    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
-  </si>
-  <si>
-    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO DA SILVA - AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
-  </si>
-  <si>
-    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
   </si>
 </sst>
 </file>
@@ -423,16 +351,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="166" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,138 +373,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
